--- a/excel1.xlsx
+++ b/excel1.xlsx
@@ -407,7 +407,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,10 +523,18 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
@@ -542,44 +550,6 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
